--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,14 +34,19 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="152">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -121,322 +126,322 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol wt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass = CVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mol wt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass = CVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -921,19 +926,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -944,24 +949,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -970,13 +975,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -987,13 +992,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -1004,13 +1009,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -1055,13 +1060,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>13</v>
@@ -1072,74 +1077,74 @@
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="C2" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="22" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="C3" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="22" t="n">
         <v>-4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="C4" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="C5" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="22" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>13</v>
@@ -1189,13 +1194,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>129</v>
@@ -1243,10 +1248,10 @@
         <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1315,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1372,7 +1377,7 @@
         <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>139</v>
@@ -1451,16 +1456,16 @@
         <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>151</v>
@@ -1554,16 +1559,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1586,56 +1591,48 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1688,10 +1685,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1700,15 +1697,15 @@
         <v>4.58E-017</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1717,7 +1714,7 @@
         <v>1E-012</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1747,12 +1744,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
@@ -1769,19 +1766,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -1792,17 +1789,17 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>1</v>
@@ -1811,23 +1808,23 @@
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -1836,23 +1833,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>3</v>
@@ -1861,23 +1858,23 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -1886,23 +1883,23 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -1911,23 +1908,23 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>6</v>
@@ -1936,15 +1933,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>1</v>
@@ -1953,7 +1950,7 @@
         <v>18.0152</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1976,31 +1973,31 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2009,33 +2006,33 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">'Species types'!F3</f>
@@ -2053,16 +2050,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">'Species types'!F5</f>
@@ -2080,16 +2077,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">'Species types'!F6</f>
@@ -2107,16 +2104,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">'Species types'!F7</f>
@@ -2134,16 +2131,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">'Species types'!F8</f>
@@ -2164,7 +2161,7 @@
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
       <c r="F7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="12" t="n">
@@ -2178,16 +2175,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>0.000148</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">'Species types'!F2</f>
@@ -2205,16 +2202,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>0.0002</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">'Species types'!F3</f>
@@ -2232,16 +2229,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">'Species types'!F8</f>
@@ -2260,7 +2257,7 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A11" s="10"/>
       <c r="F11" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="12" t="n">
@@ -2272,7 +2269,7 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="F12" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="12" t="n">
@@ -2319,10 +2316,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2366,7 +2363,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2399,9 +2396,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
@@ -2416,19 +2413,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>13</v>
@@ -2439,16 +2436,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>0</v>
@@ -2464,16 +2461,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>1</v>
@@ -2485,16 +2482,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>1</v>
@@ -2506,16 +2503,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="E5" s="16" t="n">
         <v>0</v>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,40 +13,46 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -255,6 +261,42 @@
     <t xml:space="preserve">metabolite</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -279,39 +321,15 @@
     <t xml:space="preserve">dry weight</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">molecules</t>
   </si>
   <si>
     <t xml:space="preserve">c Total</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">e Total</t>
   </si>
   <si>
@@ -411,9 +429,6 @@
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
     <t xml:space="preserve">biomass_id_001</t>
   </si>
   <si>
@@ -439,9 +454,6 @@
   </si>
   <si>
     <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -526,7 +538,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -570,6 +582,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -631,7 +649,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -674,6 +692,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -913,10 +935,165 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,19 +1103,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -949,24 +1126,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -975,13 +1152,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -992,13 +1169,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -1009,142 +1186,19 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0.001</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="19" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="22" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="22" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1163,47 +1217,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="19" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="20" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="D4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>129</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1218,6 +1336,65 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="5" min="1" style="20" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1245,13 +1422,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1262,10 +1439,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1274,10 +1451,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1320,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1337,7 +1514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1365,46 +1542,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1423,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1441,10 +1618,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1453,22 +1630,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1738,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1744,12 +1921,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
@@ -1971,33 +2148,208 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2006,30 +2358,30 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>33</v>
@@ -2038,25 +2390,25 @@
         <f aca="false">'Species types'!F3</f>
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="12" t="n">
         <f aca="false">Compartments!D$2</f>
         <v>4.58E-017</v>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="I2" s="13" t="n">
         <f aca="false">B2*H2*G2</f>
         <v>4.58E-020</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>33</v>
@@ -2065,25 +2417,25 @@
         <f aca="false">'Species types'!F5</f>
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <f aca="false">Compartments!D$2</f>
         <v>4.58E-017</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="13" t="n">
         <f aca="false">B3*H3*G3</f>
         <v>9.16E-020</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>33</v>
@@ -2092,25 +2444,25 @@
         <f aca="false">'Species types'!F6</f>
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="12" t="n">
         <f aca="false">Compartments!D$2</f>
         <v>4.58E-017</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="13" t="n">
         <f aca="false">B4*H4*G4</f>
         <v>2.29E-019</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>33</v>
@@ -2119,25 +2471,25 @@
         <f aca="false">'Species types'!F7</f>
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="12" t="n">
         <f aca="false">Compartments!D$2</f>
         <v>4.58E-017</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="13" t="n">
         <f aca="false">B5*H5*G5</f>
         <v>5.496E-019</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>33</v>
@@ -2146,42 +2498,42 @@
         <f aca="false">'Species types'!F8</f>
         <v>18.0152</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="12" t="n">
         <f aca="false">Compartments!D$2</f>
         <v>4.58E-017</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="13" t="n">
         <f aca="false">B6*H6*G6</f>
         <v>8.2509616E-016</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
-      <c r="F7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12" t="n">
+      <c r="F7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="n">
         <f aca="false">SUBTOTAL(9,I2:I6)</f>
         <v>8.2601216E-016</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="12" t="n">
         <f aca="false">Parameters!E2*I7</f>
         <v>2.47803648E-016</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>0.000148</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>36</v>
@@ -2190,25 +2542,25 @@
         <f aca="false">'Species types'!F2</f>
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="12" t="n">
         <f aca="false">Compartments!D$3</f>
         <v>1E-012</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="13" t="n">
         <f aca="false">B8*H8*G8</f>
         <v>1.48E-016</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>0.0002</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>36</v>
@@ -2217,25 +2569,25 @@
         <f aca="false">'Species types'!F3</f>
         <v>2</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="12" t="n">
         <f aca="false">Compartments!D$3</f>
         <v>1E-012</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="13" t="n">
         <f aca="false">B9*H9*G9</f>
         <v>4E-016</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>36</v>
@@ -2244,39 +2596,39 @@
         <f aca="false">'Species types'!F8</f>
         <v>18.0152</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="12" t="n">
         <f aca="false">Compartments!D$3</f>
         <v>1E-012</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="13" t="n">
         <f aca="false">B10*H10*G10</f>
         <v>1.80152E-011</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A11" s="10"/>
-      <c r="F11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12" t="n">
+      <c r="F11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="n">
         <f aca="false">SUBTOTAL(9,I8:I10)</f>
         <v>1.8015748E-011</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
-      <c r="F12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="n">
+      <c r="F12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="n">
         <f aca="false">SUBTOTAL(9,I2:I10)</f>
         <v>1.801657401216E-011</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2289,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2316,10 +2668,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2336,7 +2688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2363,7 +2715,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2378,159 +2730,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,40 +19,55 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="153">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -114,352 +129,349 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mol wt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass = CVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mol wt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass = CVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -584,10 +596,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -649,7 +663,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,19 +708,27 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,7 +869,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="I9 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,7 +960,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="I9 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -946,7 +968,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="7.71255060728745"/>
@@ -956,121 +978,121 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="E2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5"/>
@@ -1093,7 +1115,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="I9 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,47 +1125,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -1152,13 +1174,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -1169,13 +1191,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -1186,13 +1208,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -1217,111 +1239,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="I9 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="20" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="22" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="23" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>54</v>
+      <c r="D2" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1340,47 +1298,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="I9 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="20" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="22" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>131</v>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1424,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="I9 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1419,30 +1441,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1451,10 +1473,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1475,18 +1497,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I9 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1494,12 +1516,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1519,16 +1538,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="I9 F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1539,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>137</v>
@@ -1551,10 +1570,10 @@
         <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>141</v>
@@ -1581,14 +1600,12 @@
         <v>148</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1608,7 +1625,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I9 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1618,34 +1635,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1664,10 +1681,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="I9 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1696,12 +1713,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1709,17 +1726,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1739,13 +1749,13 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I9 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1756,60 +1766,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1828,16 +1825,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I9 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1848,54 +1845,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1912,24 +1901,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I9 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1940,198 +1928,175 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="E7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>47</v>
+      <c r="G7" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8" s="10" t="n">
         <v>18.0152</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2150,18 +2115,18 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="1" sqref="I9 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,126 +2137,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>69</v>
+      <c r="A4" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2325,310 +2290,302 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="11" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="11" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="11" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <f aca="false">'Species types'!E3</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="I2" s="14" t="n">
+        <f aca="false">B2*G2*H2</f>
+        <v>4.58E-020</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <f aca="false">'Species types'!E5</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <f aca="false">B3*G3*H3</f>
+        <v>9.16E-020</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <f aca="false">'Species types'!E6</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <f aca="false">B4*G4*H4</f>
+        <v>2.29E-019</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <f aca="false">'Species types'!E7</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="I5" s="14" t="n">
+        <f aca="false">B5*G5*H5</f>
+        <v>5.496E-019</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="F6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <f aca="false">'Species types'!E8</f>
+        <v>18.0152</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <f aca="false">B6*G6</f>
+        <v>18.0152</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <f aca="false">'Species types'!E2</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <f aca="false">B7*G7*H7</f>
+        <v>1.48E-016</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <f aca="false">'Species types'!E3</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <f aca="false">B8*G8*H8</f>
+        <v>4E-016</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <f aca="false">'Species types'!E8</f>
+        <v>18.0152</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <f aca="false">B9*G9</f>
+        <v>18.0152</v>
+      </c>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="F10" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">'Species types'!F3</f>
-        <v>2</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <f aca="false">Compartments!D$2</f>
-        <v>4.58E-017</v>
-      </c>
-      <c r="I2" s="13" t="n">
-        <f aca="false">B2*H2*G2</f>
-        <v>4.58E-020</v>
-      </c>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">'Species types'!F5</f>
-        <v>4</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <f aca="false">Compartments!D$2</f>
-        <v>4.58E-017</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <f aca="false">B3*H3*G3</f>
-        <v>9.16E-020</v>
-      </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">'Species types'!F6</f>
-        <v>5</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <f aca="false">Compartments!D$2</f>
-        <v>4.58E-017</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <f aca="false">B4*H4*G4</f>
-        <v>2.29E-019</v>
-      </c>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">'Species types'!F7</f>
-        <v>6</v>
-      </c>
-      <c r="H5" s="12" t="n">
-        <f aca="false">Compartments!D$2</f>
-        <v>4.58E-017</v>
-      </c>
-      <c r="I5" s="13" t="n">
-        <f aca="false">B5*H5*G5</f>
-        <v>5.496E-019</v>
-      </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="14" t="n">
+        <f aca="false">SUBTOTAL(9,I2:I6)</f>
+        <v>18.0152</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <f aca="false">Parameters!E6*I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="F11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">'Species types'!F8</f>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="n">
+        <f aca="false">SUBTOTAL(9,I7:I9)</f>
         <v>18.0152</v>
       </c>
-      <c r="H6" s="12" t="n">
-        <f aca="false">Compartments!D$2</f>
-        <v>4.58E-017</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <f aca="false">B6*H6*G6</f>
-        <v>8.2509616E-016</v>
-      </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="F7" s="14" t="s">
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="F12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13" t="n">
-        <f aca="false">SUBTOTAL(9,I2:I6)</f>
-        <v>8.2601216E-016</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <f aca="false">Parameters!E2*I7</f>
-        <v>2.47803648E-016</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>0.000148</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">'Species types'!F2</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <f aca="false">Compartments!D$3</f>
-        <v>1E-012</v>
-      </c>
-      <c r="I8" s="13" t="n">
-        <f aca="false">B8*H8*G8</f>
-        <v>1.48E-016</v>
-      </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">'Species types'!F3</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <f aca="false">Compartments!D$3</f>
-        <v>1E-012</v>
-      </c>
-      <c r="I9" s="13" t="n">
-        <f aca="false">B9*H9*G9</f>
-        <v>4E-016</v>
-      </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">'Species types'!F8</f>
-        <v>18.0152</v>
-      </c>
-      <c r="H10" s="12" t="n">
-        <f aca="false">Compartments!D$3</f>
-        <v>1E-012</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <f aca="false">B10*H10*G10</f>
-        <v>1.80152E-011</v>
-      </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="F11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13" t="n">
-        <f aca="false">SUBTOTAL(9,I8:I10)</f>
-        <v>1.8015748E-011</v>
-      </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="F12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="n">
-        <f aca="false">SUBTOTAL(9,I2:I10)</f>
-        <v>1.801657401216E-011</v>
-      </c>
-      <c r="J12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="n">
+        <f aca="false">SUBTOTAL(9,I2:I9)</f>
+        <v>36.0304</v>
+      </c>
+      <c r="J12" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2646,18 +2603,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I9 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2665,15 +2622,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2693,18 +2644,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I9 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2712,12 +2663,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,17 @@
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -178,76 +178,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -669,12 +690,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -709,14 +730,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,17 +751,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,23 +775,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -792,20 +811,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -813,16 +819,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,9 +841,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,12 +893,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -890,19 +905,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,13 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +977,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,13 +1013,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,31 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,37 +1055,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,32 +1124,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1145,9 +1140,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,139 +1163,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,7 +1366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1354,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1363,7 +1384,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1931,22 +1952,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1963,16 +1984,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E2" s="13">
         <v>0</v>
@@ -1984,22 +2005,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -2011,16 +2032,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -2032,16 +2053,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -2093,19 +2114,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2122,22 +2143,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2145,22 +2166,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2168,22 +2189,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2191,22 +2212,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="F5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2215,22 +2236,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2275,13 +2296,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2298,17 +2319,17 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2345,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2368,22 +2389,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2423,16 +2444,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
@@ -2449,85 +2470,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2" s="10">
         <v>-3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E3" s="10">
         <v>-4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2566,16 +2587,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2592,106 +2613,106 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2731,10 +2752,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2782,28 +2803,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2852,46 +2873,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3059,30 +3080,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1028" width="8.78333333333333" style="5"/>
-    <col min="1029" max="16384" width="9" style="5"/>
+    <col min="1" max="1031" width="8.78333333333333" style="5"/>
+    <col min="1032" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:14">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:17">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3107,90 +3128,114 @@
         <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="7">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="5">
+      <c r="J2" s="5">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>52</v>
+      <c r="K3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3234,19 +3279,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3264,14 +3309,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3280,20 +3325,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -3302,20 +3347,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -3324,20 +3369,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -3346,20 +3391,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -3368,19 +3413,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E7" s="13">
         <v>6</v>
@@ -3389,18 +3434,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E8" s="24">
         <v>18.0152</v>
@@ -3409,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3450,13 +3495,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3473,142 +3518,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3665,19 +3710,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3693,39 +3738,39 @@
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="19">
         <v>0.0005</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N2" s="14">
         <f>'Species types'!E3</f>
@@ -3742,22 +3787,22 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="19">
         <v>0.0005</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N3" s="14">
         <f>'Species types'!E5</f>
@@ -3774,22 +3819,22 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="19">
         <v>0.001</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" s="14">
         <f>'Species types'!E6</f>
@@ -3806,22 +3851,22 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="19">
         <v>0.002</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N5" s="14">
         <f>'Species types'!E7</f>
@@ -3838,22 +3883,22 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N6" s="14">
         <f>'Species types'!E8</f>
@@ -3870,22 +3915,22 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19">
         <v>0.000148</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="14">
         <f>'Species types'!E2</f>
@@ -3902,22 +3947,22 @@
     </row>
     <row r="8" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E8" s="19">
         <v>0.0002</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="14">
         <f>'Species types'!E3</f>
@@ -3934,22 +3979,22 @@
     </row>
     <row r="9" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="14">
         <f>'Species types'!E8</f>
@@ -3968,7 +4013,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="M10" s="23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="22">
@@ -3982,7 +4027,7 @@
     </row>
     <row r="11" customHeight="1" outlineLevel="1" spans="13:17">
       <c r="M11" s="23" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="O11" s="21"/>
       <c r="P11" s="22">
@@ -3993,7 +4038,7 @@
     </row>
     <row r="12" customHeight="1" spans="13:17">
       <c r="M12" s="23" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="22">
@@ -4036,10 +4081,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4088,10 +4133,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -388,19 +388,13 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>compartment</t>
-  </si>
-  <si>
-    <t>mol wt.</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>mass = CVM</t>
-  </si>
-  <si>
-    <t>dry weight</t>
+    <t>Compartment volume</t>
+  </si>
+  <si>
+    <t>Mass = Concentration * Compartment-volume * Molecular-weight</t>
+  </si>
+  <si>
+    <t>Dry weight</t>
   </si>
   <si>
     <t>dist-init-conc-specie_2[c]</t>
@@ -457,7 +451,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -545,6 +539,12 @@
   </si>
   <si>
     <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
@@ -690,12 +690,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -730,7 +730,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,21 +738,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,15 +752,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -783,7 +776,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +805,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,40 +833,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,7 +851,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,91 +887,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,6 +917,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1001,31 +977,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,37 +1025,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,15 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1118,32 +1109,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1164,11 +1129,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,139 +1158,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1375,19 +1375,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1926,7 +1926,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -1952,22 +1952,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1984,16 +1984,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="13">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>91</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2166,22 +2166,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2189,22 +2189,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2212,22 +2212,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2236,22 +2236,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2273,14 +2273,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2288,7 +2288,7 @@
     <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2296,28 +2296,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>160</v>
       </c>
@@ -2330,6 +2336,12 @@
       </c>
       <c r="E2" s="5" t="s">
         <v>162</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>
@@ -2398,7 +2410,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>56</v>
@@ -2485,7 +2497,7 @@
         <v>-3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>170</v>
@@ -2508,7 +2520,7 @@
         <v>-4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -2528,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -2548,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2580,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -2619,7 +2631,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
@@ -2670,7 +2682,7 @@
         <v>0.0003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -2752,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>
@@ -3082,12 +3094,12 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3216,10 +3228,10 @@
         <v>55</v>
       </c>
       <c r="I3" s="5">
-        <v>1</v>
+        <v>1e-12</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>1e-13</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>56</v>
@@ -3676,7 +3688,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M$1:Q$1048576"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3693,9 +3705,8 @@
     <col min="10" max="10" width="10.125" style="5" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="14" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="14" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="14" customWidth="1"/>
+    <col min="13" max="14" width="12.25" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="14" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="14" customWidth="1"/>
     <col min="17" max="17" width="9.875" style="14" customWidth="1"/>
     <col min="18" max="1032" width="8.78333333333333" style="14"/>
@@ -3738,24 +3749,24 @@
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>94</v>
@@ -3767,27 +3778,28 @@
         <v>0.0005</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N2" s="14">
-        <f>'Species types'!E3</f>
+        <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O2" s="14">
+        <f>VLOOKUP(VLOOKUP(C2,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="21">
-        <v>4.58e-17</v>
-      </c>
-      <c r="P2" s="22">
-        <f>E2*N2*O2</f>
+      <c r="P2" s="21">
+        <f t="shared" ref="P2:P9" si="0">E2*N2*O2</f>
         <v>4.58e-20</v>
       </c>
-      <c r="Q2" s="21"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>96</v>
@@ -3799,27 +3811,28 @@
         <v>0.0005</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N3" s="14">
-        <f>'Species types'!E5</f>
+        <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O3" s="14">
+        <f>VLOOKUP(VLOOKUP(C3,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="O3" s="21">
-        <v>4.58e-17</v>
-      </c>
-      <c r="P3" s="22">
-        <f>E3*N3*O3</f>
+      <c r="P3" s="21">
+        <f t="shared" si="0"/>
         <v>9.16e-20</v>
       </c>
-      <c r="Q3" s="21"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>97</v>
@@ -3831,27 +3844,28 @@
         <v>0.001</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N4" s="14">
-        <f>'Species types'!E6</f>
+        <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O4" s="14">
+        <f>VLOOKUP(VLOOKUP(C4,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="O4" s="21">
-        <v>4.58e-17</v>
-      </c>
-      <c r="P4" s="22">
-        <f>E4*N4*O4</f>
+      <c r="P4" s="21">
+        <f t="shared" si="0"/>
         <v>2.29e-19</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>98</v>
@@ -3863,27 +3877,28 @@
         <v>0.002</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N5" s="14">
-        <f>'Species types'!E7</f>
+        <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O5" s="14">
+        <f>VLOOKUP(VLOOKUP(C5,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="O5" s="21">
-        <v>4.58e-17</v>
-      </c>
-      <c r="P5" s="22">
-        <f>E5*N5*O5</f>
+      <c r="P5" s="21">
+        <f t="shared" si="0"/>
         <v>5.496e-19</v>
       </c>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>99</v>
@@ -3901,21 +3916,22 @@
         <v>48</v>
       </c>
       <c r="N6" s="14">
-        <f>'Species types'!E8</f>
+        <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
+        <v>4.58e-17</v>
+      </c>
+      <c r="O6" s="14">
+        <f>VLOOKUP(VLOOKUP(C6,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>18.0152</v>
       </c>
-      <c r="O6" s="21">
-        <v>4.58e-17</v>
-      </c>
-      <c r="P6" s="22">
-        <f>E6*N6</f>
-        <v>18.0152</v>
-      </c>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="21">
+        <f t="shared" si="0"/>
+        <v>8.2509616e-16</v>
+      </c>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>100</v>
@@ -3927,27 +3943,28 @@
         <v>0.000148</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>53</v>
       </c>
       <c r="N7" s="14">
-        <f>'Species types'!E2</f>
+        <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
+        <v>1e-12</v>
+      </c>
+      <c r="O7" s="14">
+        <f>VLOOKUP(VLOOKUP(C7,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="21">
-        <v>1e-12</v>
-      </c>
-      <c r="P7" s="22">
-        <f>E7*N7*O7</f>
+      <c r="P7" s="21">
+        <f t="shared" si="0"/>
         <v>1.48e-16</v>
       </c>
-      <c r="Q7" s="21"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A8" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>101</v>
@@ -3959,27 +3976,28 @@
         <v>0.0002</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>53</v>
       </c>
       <c r="N8" s="14">
-        <f>'Species types'!E3</f>
+        <f>VLOOKUP(M8,Compartments!A:I,9,FALSE)</f>
+        <v>1e-12</v>
+      </c>
+      <c r="O8" s="14">
+        <f>VLOOKUP(VLOOKUP(C8,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O8" s="21">
-        <v>1e-12</v>
-      </c>
-      <c r="P8" s="22">
-        <f>E8*N8*O8</f>
+      <c r="P8" s="21">
+        <f t="shared" si="0"/>
         <v>4e-16</v>
       </c>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>102</v>
@@ -3997,55 +4015,56 @@
         <v>53</v>
       </c>
       <c r="N9" s="14">
-        <f>'Species types'!E8</f>
+        <f>VLOOKUP(M9,Compartments!A:I,9,FALSE)</f>
+        <v>1e-12</v>
+      </c>
+      <c r="O9" s="14">
+        <f>VLOOKUP(VLOOKUP(C9,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>18.0152</v>
       </c>
-      <c r="O9" s="21">
-        <v>1e-12</v>
-      </c>
-      <c r="P9" s="22">
-        <f>E9*N9</f>
-        <v>18.0152</v>
-      </c>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="21">
+        <f t="shared" si="0"/>
+        <v>1.80152e-11</v>
+      </c>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" customHeight="1" outlineLevel="2" spans="2:17">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="P10" s="21">
+        <f>SUMIF(M$2:M$9,"c",P$2:P$9)</f>
+        <v>8.2601216e-16</v>
+      </c>
+      <c r="Q10" s="23">
+        <f>P10*Parameters!D2</f>
+        <v>2.47803648e-16</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" outlineLevel="1" spans="13:17">
+      <c r="M11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="P11" s="21">
+        <f>SUMIF(M$2:M$9,"e",P$2:P$9)</f>
+        <v>1.8015748e-11</v>
+      </c>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" customHeight="1" spans="13:17">
+      <c r="M12" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22">
-        <f>SUBTOTAL(9,P2:P6)</f>
-        <v>18.0152</v>
-      </c>
-      <c r="Q10" s="21" t="e">
-        <f>Parameters!#REF!*P10</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" outlineLevel="1" spans="13:17">
-      <c r="M11" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22">
-        <f>SUBTOTAL(9,P7:P9)</f>
-        <v>18.0152</v>
-      </c>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" customHeight="1" spans="13:17">
-      <c r="M12" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22">
-        <f>SUBTOTAL(9,P2:P9)</f>
-        <v>36.0304</v>
-      </c>
-      <c r="Q12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="P12" s="21">
+        <f>SUM(P2:P9)</f>
+        <v>1.801657401216e-11</v>
+      </c>
+      <c r="Q12" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4081,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>91</v>
@@ -4133,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -190,484 +190,505 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>Na5</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>N5O5</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>H2O[e]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Compartment volume</t>
+  </si>
+  <si>
+    <t>Mass = Concentration * Compartment-volume * Molecular-weight</t>
+  </si>
+  <si>
+    <t>Dry weight</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[e]</t>
+  </si>
+  <si>
+    <t>c Total</t>
+  </si>
+  <si>
+    <t>e Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>Na5</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N5O5</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>H2O[c]</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>H2O[e]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>Compartment volume</t>
-  </si>
-  <si>
-    <t>Mass = Concentration * Compartment-volume * Molecular-weight</t>
-  </si>
-  <si>
-    <t>Dry weight</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[e]</t>
-  </si>
-  <si>
-    <t>c Total</t>
-  </si>
-  <si>
-    <t>e Total</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (K_m_3 + specie_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -690,12 +711,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -730,66 +751,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -805,14 +766,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,6 +827,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,16 +848,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,21 +888,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,7 +908,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,13 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +1028,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,145 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,26 +1111,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,17 +1141,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,8 +1168,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,148 +1208,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1952,22 +1973,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1984,16 +2005,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E2" s="13">
         <v>0</v>
@@ -2005,22 +2026,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -2032,16 +2053,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -2053,16 +2074,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -2092,14 +2113,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.75" style="5" customWidth="1"/>
     <col min="2" max="5" width="8.78333333333333" style="5"/>
-    <col min="6" max="6" width="26.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.78333333333333" style="5"/>
     <col min="8" max="9" width="9.25" style="5"/>
     <col min="10" max="1025" width="8.78333333333333" style="5"/>
@@ -2114,19 +2135,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2143,22 +2164,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2166,22 +2187,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2189,22 +2210,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2212,22 +2233,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2236,22 +2257,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2275,7 +2296,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2296,19 +2317,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2325,20 +2346,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2378,13 +2399,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2401,22 +2422,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2456,16 +2477,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
@@ -2482,85 +2503,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="10">
         <v>-3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="10">
         <v>-4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2573,17 +2594,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="5"/>
     <col min="4" max="4" width="9.25" style="5"/>
@@ -2599,16 +2620,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2625,106 +2646,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2764,10 +2827,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2815,28 +2878,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2885,46 +2948,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3092,23 +3155,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.78333333333333" style="5"/>
-    <col min="1032" max="16384" width="9" style="5"/>
+    <col min="1" max="1030" width="8.78333333333333" style="5"/>
+    <col min="1031" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3146,45 +3209,42 @@
         <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3193,39 +3253,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="5" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="5">
         <v>1e-12</v>
@@ -3234,16 +3291,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3291,19 +3345,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3321,14 +3375,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3337,20 +3391,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -3359,20 +3413,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -3381,20 +3435,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -3403,20 +3457,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -3425,19 +3479,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="D7" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="13">
         <v>6</v>
@@ -3446,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="24">
         <v>18.0152</v>
@@ -3466,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3507,13 +3561,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3530,142 +3584,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3683,12 +3737,12 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3721,19 +3775,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3749,39 +3803,39 @@
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="19">
         <v>0.0005</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="14">
         <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
@@ -3799,22 +3853,22 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="19">
         <v>0.0005</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="14">
         <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
@@ -3832,22 +3886,22 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="19">
         <v>0.001</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="14">
         <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
@@ -3865,22 +3919,22 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="19">
         <v>0.002</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="14">
         <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
@@ -3898,22 +3952,22 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="14">
         <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
@@ -3931,22 +3985,22 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="19">
         <v>0.000148</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="14">
         <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
@@ -3964,22 +4018,22 @@
     </row>
     <row r="8" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="19">
         <v>0.0002</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="14">
         <f>VLOOKUP(M8,Compartments!A:I,9,FALSE)</f>
@@ -3997,22 +4051,22 @@
     </row>
     <row r="9" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="14">
         <f>VLOOKUP(M9,Compartments!A:I,9,FALSE)</f>
@@ -4032,7 +4086,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="M10" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N10" s="22"/>
       <c r="P10" s="21">
@@ -4046,7 +4100,7 @@
     </row>
     <row r="11" customHeight="1" outlineLevel="1" spans="13:17">
       <c r="M11" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11" s="22"/>
       <c r="P11" s="21">
@@ -4057,7 +4111,7 @@
     </row>
     <row r="12" customHeight="1" spans="13:17">
       <c r="M12" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N12" s="22"/>
       <c r="P12" s="21">
@@ -4100,10 +4154,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4128,17 +4182,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1025" width="8.78333333333333" style="5"/>
     <col min="1026" max="16384" width="9" style="5"/>
@@ -4152,10 +4206,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -4168,6 +4222,30 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -454,6 +454,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -472,6 +475,9 @@
     <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -518,9 +524,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -712,11 +715,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -745,13 +748,74 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,6 +830,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -780,14 +867,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,45 +881,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -848,46 +889,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,19 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,13 +923,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +977,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +1007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,25 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,13 +1055,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,66 +1092,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,17 +1114,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,11 +1138,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,9 +1170,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,149 +1211,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,32 +1943,32 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="16" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.4583333333333" style="5"/>
     <col min="4" max="4" width="44.775" style="5"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="7.5" style="5"/>
-    <col min="7" max="7" width="7.71666666666667" style="5"/>
-    <col min="8" max="8" width="9.31666666666667" style="5"/>
-    <col min="9" max="9" width="9.425" style="5"/>
-    <col min="10" max="1025" width="8.78333333333333" style="13"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="5" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="7.5" style="5"/>
+    <col min="8" max="8" width="7.71666666666667" style="5"/>
+    <col min="9" max="9" width="9.31666666666667" style="5"/>
+    <col min="10" max="10" width="9.425" style="5"/>
+    <col min="11" max="1026" width="8.78333333333333" style="13"/>
+    <col min="1027" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1991,107 +1994,125 @@
         <v>131</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
+      <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="I2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+      <c r="I3" s="13"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="6:6">
+      <c r="F6" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2135,10 +2156,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>66</v>
@@ -2164,22 +2185,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2187,22 +2208,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2210,22 +2231,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2233,22 +2254,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2257,22 +2278,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2326,10 +2347,10 @@
         <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2346,20 +2367,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2405,7 +2426,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2422,22 +2443,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2477,13 +2498,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>90</v>
@@ -2503,13 +2524,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>91</v>
@@ -2518,21 +2539,21 @@
         <v>-3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>93</v>
@@ -2541,18 +2562,18 @@
         <v>-4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>94</v>
@@ -2561,18 +2582,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>95</v>
@@ -2581,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2623,10 +2644,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>90</v>
@@ -2646,100 +2667,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
@@ -2750,16 +2771,16 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2767,13 +2788,13 @@
         <v>56</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -2781,17 +2802,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F8">
+  <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2878,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>90</v>
@@ -2887,19 +2908,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2948,46 +2969,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3737,7 +3758,7 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,67 +5,68 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -133,7 +134,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -151,6 +152,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -665,9 +681,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -716,10 +729,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -748,23 +761,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,19 +774,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,6 +785,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,9 +811,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,6 +841,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,25 +871,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -911,19 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,13 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,6 +961,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1014,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +1050,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,91 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1131,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,7 +1196,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,140 +1227,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1421,6 +1434,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1943,9 +1959,85 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="5"/>
+    <col min="1026" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1976,31 +2068,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2011,22 +2103,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E2" s="13">
         <v>0</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
@@ -2035,28 +2127,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2065,22 +2157,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -2089,22 +2181,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2124,7 +2216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
@@ -2156,25 +2248,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2185,22 +2277,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2208,22 +2300,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2231,22 +2323,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2254,22 +2346,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2278,22 +2370,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2312,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2338,25 +2430,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2367,20 +2459,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2392,7 +2484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2420,19 +2512,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2443,22 +2535,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J5"/>
@@ -2498,22 +2590,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>19</v>
@@ -2524,85 +2616,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="10">
         <v>-3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E3" s="10">
         <v>-4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2641,22 +2733,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2667,148 +2759,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2848,16 +2940,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2873,7 +2965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2899,34 +2991,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>19</v>
@@ -2941,7 +3033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2969,46 +3061,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3036,7 +3128,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -3095,6 +3187,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="5"/>
+    <col min="1016" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3122,13 +3291,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3142,28 +3311,28 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="26"/>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3173,7 +3342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -3200,40 +3369,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3244,28 +3413,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3274,36 +3443,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="5">
         <v>1e-12</v>
@@ -3312,13 +3481,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ8"/>
@@ -3366,25 +3535,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3396,14 +3565,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3412,20 +3581,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -3434,20 +3603,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -3456,20 +3625,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -3478,20 +3647,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -3500,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="13">
         <v>6</v>
@@ -3521,18 +3690,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E8" s="24">
         <v>18.0152</v>
@@ -3541,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I11"/>
@@ -3582,19 +3751,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3605,142 +3774,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3753,7 +3922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q12"/>
@@ -3796,25 +3965,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3824,39 +3993,39 @@
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="19">
         <v>0.0005</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N2" s="14">
         <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
@@ -3874,22 +4043,22 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" s="19">
         <v>0.0005</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N3" s="14">
         <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
@@ -3907,22 +4076,22 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4" s="19">
         <v>0.001</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N4" s="14">
         <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
@@ -3940,22 +4109,22 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="19">
         <v>0.002</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N5" s="14">
         <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
@@ -3973,22 +4142,22 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N6" s="14">
         <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
@@ -4006,22 +4175,22 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" s="19">
         <v>0.000148</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N7" s="14">
         <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
@@ -4039,22 +4208,22 @@
     </row>
     <row r="8" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" s="19">
         <v>0.0002</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N8" s="14">
         <f>VLOOKUP(M8,Compartments!A:I,9,FALSE)</f>
@@ -4072,22 +4241,22 @@
     </row>
     <row r="9" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N9" s="14">
         <f>VLOOKUP(M9,Compartments!A:I,9,FALSE)</f>
@@ -4107,7 +4276,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="M10" s="22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N10" s="22"/>
       <c r="P10" s="21">
@@ -4121,7 +4290,7 @@
     </row>
     <row r="11" customHeight="1" outlineLevel="1" spans="13:17">
       <c r="M11" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N11" s="22"/>
       <c r="P11" s="21">
@@ -4132,7 +4301,7 @@
     </row>
     <row r="12" customHeight="1" spans="13:17">
       <c r="M12" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N12" s="22"/>
       <c r="P12" s="21">
@@ -4148,7 +4317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -4175,98 +4344,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -593,7 +593,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -727,12 +727,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -761,9 +761,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,17 +774,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,16 +798,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,8 +821,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,7 +840,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,24 +859,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,22 +895,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -901,11 +902,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -924,13 +924,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +1008,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,19 +1074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,55 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,61 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,6 +1124,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1147,21 +1162,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,157 +1210,157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1403,7 +1403,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1412,13 +1412,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1434,9 +1434,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2494,7 +2491,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2565,12 +2562,12 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -3191,7 +3188,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C21" sqref="C21"/>
@@ -3202,7 +3199,7 @@
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="5"/>
-    <col min="1016" max="16384" width="9" style="27"/>
+    <col min="1016" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="219">
   <si>
     <t>Id</t>
   </si>
@@ -167,6 +167,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -579,9 +585,6 @@
   </si>
   <si>
     <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -728,11 +731,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -761,6 +764,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -769,21 +784,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -791,10 +793,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,7 +809,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +818,27 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -831,21 +854,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,30 +883,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,17 +897,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -924,7 +927,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,25 +1059,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,79 +1089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,61 +1107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,6 +1170,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1183,11 +1212,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,163 +1227,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1980,16 +1983,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2000,26 +2003,26 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2065,31 +2068,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2100,22 +2103,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="13">
         <v>0</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
@@ -2124,28 +2127,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2154,22 +2157,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -2178,22 +2181,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -2245,25 +2248,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2274,22 +2277,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2297,22 +2300,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2320,22 +2323,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2343,22 +2346,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2367,22 +2370,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2427,25 +2430,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2456,20 +2459,20 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2509,19 +2512,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2532,22 +2535,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2565,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2587,22 +2590,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>19</v>
@@ -2613,85 +2616,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="10">
         <v>-3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10">
         <v>-4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2730,22 +2733,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2756,148 +2759,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2937,16 +2940,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2988,34 +2991,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>19</v>
@@ -3058,46 +3061,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3186,15 +3189,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
@@ -3239,18 +3242,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3288,13 +3299,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3308,28 +3319,28 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="26"/>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3366,40 +3377,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3410,28 +3421,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3440,36 +3451,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5">
         <v>1e-12</v>
@@ -3478,13 +3489,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3532,25 +3543,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3562,14 +3573,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3578,20 +3589,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -3600,20 +3611,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -3622,20 +3633,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -3644,20 +3655,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -3666,19 +3677,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="13">
         <v>6</v>
@@ -3687,18 +3698,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="24">
         <v>18.0152</v>
@@ -3707,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3748,19 +3759,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3771,142 +3782,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3962,25 +3973,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3990,39 +4001,39 @@
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="19">
         <v>0.0005</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N2" s="14">
         <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
@@ -4040,22 +4051,22 @@
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="19">
         <v>0.0005</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N3" s="14">
         <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
@@ -4073,22 +4084,22 @@
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="19">
         <v>0.001</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4" s="14">
         <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
@@ -4106,22 +4117,22 @@
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="19">
         <v>0.002</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5" s="14">
         <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
@@ -4139,22 +4150,22 @@
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N6" s="14">
         <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
@@ -4172,22 +4183,22 @@
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="19">
         <v>0.000148</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" s="14">
         <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
@@ -4205,22 +4216,22 @@
     </row>
     <row r="8" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A8" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="19">
         <v>0.0002</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N8" s="14">
         <f>VLOOKUP(M8,Compartments!A:I,9,FALSE)</f>
@@ -4238,22 +4249,22 @@
     </row>
     <row r="9" customHeight="1" outlineLevel="2" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N9" s="14">
         <f>VLOOKUP(M9,Compartments!A:I,9,FALSE)</f>
@@ -4273,7 +4284,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="M10" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N10" s="22"/>
       <c r="P10" s="21">
@@ -4287,7 +4298,7 @@
     </row>
     <row r="11" customHeight="1" outlineLevel="1" spans="13:17">
       <c r="M11" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N11" s="22"/>
       <c r="P11" s="21">
@@ -4298,7 +4309,7 @@
     </row>
     <row r="12" customHeight="1" spans="13:17">
       <c r="M12" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N12" s="22"/>
       <c r="P12" s="21">
@@ -4341,16 +4352,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>19</v>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -55,18 +56,18 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -179,6 +180,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -683,10 +687,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -730,12 +749,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -769,23 +788,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -794,9 +806,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,29 +821,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,24 +842,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,8 +864,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,16 +916,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,37 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,31 +994,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1078,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,43 +1090,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,19 +1120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,21 +1149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1154,17 +1158,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,151 +1217,172 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1381,6 +1400,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1406,7 +1428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1415,16 +1437,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1900,25 +1922,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1926,25 +1948,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1959,23 +1981,23 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1983,10 +2005,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1995,34 +2017,37 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2035,14 +2060,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2056,11 +2081,11 @@
     <col min="8" max="8" width="7.71666666666667" style="5"/>
     <col min="9" max="9" width="9.31666666666667" style="5"/>
     <col min="10" max="10" width="9.425" style="5"/>
-    <col min="11" max="1026" width="8.78333333333333" style="13"/>
-    <col min="1027" max="16384" width="9" style="13"/>
+    <col min="11" max="1027" width="8.78333333333333" style="14"/>
+    <col min="1028" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2068,25 +2093,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2095,116 +2120,119 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="13">
+      <c r="C2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="F4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="13">
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="6:6">
-      <c r="F6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2219,14 +2247,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2235,12 +2263,12 @@
     <col min="2" max="5" width="8.78333333333333" style="5"/>
     <col min="6" max="6" width="60.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.78333333333333" style="5"/>
-    <col min="8" max="9" width="9.25" style="5"/>
-    <col min="10" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="8" max="10" width="9.25" style="5"/>
+    <col min="11" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2248,19 +2276,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2269,133 +2297,142 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+      <c r="K3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
+      <c r="K4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
+      <c r="K5"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" customHeight="1" spans="8:10">
+      <c r="K6"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="8:11">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
+      <c r="K7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2407,22 +2444,22 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="11"/>
+    <col min="1" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2430,19 +2467,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2451,28 +2488,31 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>172</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2487,24 +2527,24 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="8"/>
-    <col min="6" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="5" width="8.78333333333333" style="9"/>
+    <col min="6" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2512,13 +2552,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2527,30 +2567,33 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>174</v>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>175</v>
+        <v>144</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2563,138 +2606,141 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="8"/>
-    <col min="4" max="5" width="9.875" style="8"/>
-    <col min="6" max="7" width="8.78333333333333" style="8"/>
-    <col min="8" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="8.78333333333333" style="9"/>
+    <col min="4" max="5" width="9.875" style="9"/>
+    <col min="6" max="7" width="8.78333333333333" style="9"/>
+    <col min="8" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>172</v>
+      <c r="B2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="10">
+        <v>99</v>
+      </c>
+      <c r="E2" s="11">
         <v>-3</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>180</v>
+      <c r="F2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>172</v>
+      <c r="B3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="10">
+        <v>101</v>
+      </c>
+      <c r="E3" s="11">
         <v>-4</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>144</v>
+      <c r="F3" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>172</v>
+      <c r="B4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="10">
+        <v>102</v>
+      </c>
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>144</v>
+      <c r="F4" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>144</v>
+      <c r="F5" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2707,25 +2753,25 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A10:A11"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.78333333333333" style="5"/>
     <col min="4" max="4" width="9.25" style="5"/>
-    <col min="5" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="5" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2733,16 +2779,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2751,21 +2797,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
@@ -2773,134 +2822,134 @@
       <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>190</v>
+      <c r="J2" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="7">
+        <v>193</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.0003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="7">
+        <v>193</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.0003</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="7">
+        <v>193</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.0003</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="7">
+        <v>200</v>
+      </c>
+      <c r="D8" s="8">
         <v>0.001</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="7">
+        <v>159</v>
+      </c>
+      <c r="D9" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2916,23 +2965,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2940,10 +2989,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2952,9 +3001,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2968,14 +3020,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2983,7 +3035,7 @@
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2991,16 +3043,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>204</v>
@@ -3009,21 +3061,45 @@
         <v>205</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3036,87 +3112,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="8.78333333333333" style="2"/>
-    <col min="18" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="5"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AMJ1" s="3"/>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3186,12 +3273,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="17" width="8.78333333333333" style="2"/>
+    <col min="18" max="1025" width="8.78333333333333" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
@@ -3202,7 +3376,7 @@
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="5"/>
-    <col min="1016" max="16384" width="9" style="14"/>
+    <col min="1016" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3274,24 +3448,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="8.78333333333333" style="2"/>
-    <col min="7" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="7" width="8.78333333333333" style="2"/>
+    <col min="8" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3308,39 +3482,42 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="3"/>
       <c r="AMI1" s="3"/>
       <c r="AMJ1" s="3"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
+      <c r="AMK1" s="3"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="F2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3353,58 +3530,58 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1030" width="8.78333333333333" style="5"/>
-    <col min="1031" max="16384" width="9" style="5"/>
+    <col min="1" max="1031" width="8.78333333333333" style="5"/>
+    <col min="1032" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3413,74 +3590,77 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="7">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="5">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I3" s="5">
         <v>1e-12</v>
@@ -3489,13 +3669,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="5" t="s">
         <v>68</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3511,14 +3691,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ8"/>
+  <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -3530,12 +3710,12 @@
     <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="7" width="15" style="5"/>
     <col min="8" max="8" width="11.1416666666667" style="5"/>
-    <col min="9" max="9" width="11.4583333333333" style="5"/>
-    <col min="10" max="1025" width="8.78333333333333" style="13"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="9" max="10" width="11.4583333333333" style="5"/>
+    <col min="11" max="1026" width="8.78333333333333" style="14"/>
+    <col min="1027" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3543,19 +3723,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3564,23 +3744,26 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ1" s="13"/>
+      <c r="AMK1" s="14"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3588,21 +3771,21 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -3610,21 +3793,21 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -3632,93 +3815,93 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="G4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="13">
+        <v>87</v>
+      </c>
+      <c r="E5" s="14">
         <v>4</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="13">
+        <v>90</v>
+      </c>
+      <c r="E6" s="14">
         <v>5</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="G6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="B7" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="13">
+        <v>93</v>
+      </c>
+      <c r="E7" s="14">
         <v>6</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>77</v>
+      <c r="G7" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>93</v>
+      <c r="A8" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="24">
+        <v>94</v>
+      </c>
+      <c r="E8" s="25">
         <v>18.0152</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3734,24 +3917,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.7416666666667" style="5"/>
-    <col min="7" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="7" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3759,13 +3942,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3774,150 +3957,153 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3933,14 +4119,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L$1:Q$1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3953,19 +4139,19 @@
     <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="17" customWidth="1"/>
-    <col min="13" max="14" width="12.25" style="14" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="14" customWidth="1"/>
-    <col min="17" max="17" width="9.875" style="14" customWidth="1"/>
-    <col min="18" max="1032" width="8.78333333333333" style="14"/>
-    <col min="1033" max="16384" width="9" style="18"/>
+    <col min="9" max="10" width="8.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="18" customWidth="1"/>
+    <col min="14" max="15" width="12.25" style="15" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="15" customWidth="1"/>
+    <col min="18" max="18" width="9.875" style="15" customWidth="1"/>
+    <col min="19" max="1033" width="8.78333333333333" style="15"/>
+    <col min="1034" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
+    <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3973,19 +4159,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3994,329 +4180,332 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="M1" s="21"/>
       <c r="N1" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R1" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="19">
+        <v>62</v>
+      </c>
+      <c r="E2" s="20">
         <v>0.0005</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="14">
-        <f>VLOOKUP(M2,Compartments!A:I,9,FALSE)</f>
+      <c r="G2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="15">
+        <f>VLOOKUP(N2,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O2" s="14">
+      <c r="P2" s="15">
         <f>VLOOKUP(VLOOKUP(C2,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="P2" s="21">
-        <f t="shared" ref="P2:P9" si="0">E2*N2*O2</f>
+      <c r="Q2" s="23">
+        <f t="shared" ref="Q2:Q9" si="0">E2*O2*P2</f>
         <v>4.58e-20</v>
       </c>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.0005</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0.0005</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="14">
-        <f>VLOOKUP(M3,Compartments!A:I,9,FALSE)</f>
+      <c r="N3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="15">
+        <f>VLOOKUP(N3,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O3" s="14">
+      <c r="P3" s="15">
         <f>VLOOKUP(VLOOKUP(C3,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="P3" s="21">
+      <c r="Q3" s="23">
         <f t="shared" si="0"/>
         <v>9.16e-20</v>
       </c>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="19">
+        <v>62</v>
+      </c>
+      <c r="E4" s="20">
         <v>0.001</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="14">
-        <f>VLOOKUP(M4,Compartments!A:I,9,FALSE)</f>
+      <c r="G4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="15">
+        <f>VLOOKUP(N4,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O4" s="14">
+      <c r="P4" s="15">
         <f>VLOOKUP(VLOOKUP(C4,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="P4" s="21">
+      <c r="Q4" s="23">
         <f t="shared" si="0"/>
         <v>2.29e-19</v>
       </c>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="19">
+        <v>62</v>
+      </c>
+      <c r="E5" s="20">
         <v>0.002</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="14">
-        <f>VLOOKUP(M5,Compartments!A:I,9,FALSE)</f>
+      <c r="G5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="15">
+        <f>VLOOKUP(N5,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O5" s="14">
+      <c r="P5" s="15">
         <f>VLOOKUP(VLOOKUP(C5,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="P5" s="21">
+      <c r="Q5" s="23">
         <f t="shared" si="0"/>
         <v>5.496e-19</v>
       </c>
-      <c r="Q5" s="23"/>
-    </row>
-    <row r="6" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="14">
-        <f>VLOOKUP(M6,Compartments!A:I,9,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="15">
+        <f>VLOOKUP(N6,Compartments!A:I,9,FALSE)</f>
         <v>4.58e-17</v>
       </c>
-      <c r="O6" s="14">
+      <c r="P6" s="15">
         <f>VLOOKUP(VLOOKUP(C6,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>18.0152</v>
       </c>
-      <c r="P6" s="21">
+      <c r="Q6" s="23">
         <f t="shared" si="0"/>
         <v>8.2509616e-16</v>
       </c>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="19">
+        <v>62</v>
+      </c>
+      <c r="E7" s="20">
         <v>0.000148</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="14">
-        <f>VLOOKUP(M7,Compartments!A:I,9,FALSE)</f>
+      <c r="G7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="15">
+        <f>VLOOKUP(N7,Compartments!A:I,9,FALSE)</f>
         <v>1e-12</v>
       </c>
-      <c r="O7" s="14">
+      <c r="P7" s="15">
         <f>VLOOKUP(VLOOKUP(C7,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="21">
+      <c r="Q7" s="23">
         <f t="shared" si="0"/>
         <v>1.48e-16</v>
       </c>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="19">
+        <v>62</v>
+      </c>
+      <c r="E8" s="20">
         <v>0.0002</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="14">
-        <f>VLOOKUP(M8,Compartments!A:I,9,FALSE)</f>
+      <c r="G8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="15">
+        <f>VLOOKUP(N8,Compartments!A:I,9,FALSE)</f>
         <v>1e-12</v>
       </c>
-      <c r="O8" s="14">
+      <c r="P8" s="15">
         <f>VLOOKUP(VLOOKUP(C8,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="P8" s="21">
+      <c r="Q8" s="23">
         <f t="shared" si="0"/>
         <v>4e-16</v>
       </c>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" customHeight="1" outlineLevel="2" spans="1:17">
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" customHeight="1" outlineLevel="2" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="14">
-        <f>VLOOKUP(M9,Compartments!A:I,9,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="15">
+        <f>VLOOKUP(N9,Compartments!A:I,9,FALSE)</f>
         <v>1e-12</v>
       </c>
-      <c r="O9" s="14">
+      <c r="P9" s="15">
         <f>VLOOKUP(VLOOKUP(C9,Species!A:C,3,FALSE),'Species types'!A:E,5,FALSE)</f>
         <v>18.0152</v>
       </c>
-      <c r="P9" s="21">
+      <c r="Q9" s="23">
         <f t="shared" si="0"/>
         <v>1.80152e-11</v>
       </c>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" customHeight="1" outlineLevel="2" spans="2:17">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="M10" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="P10" s="21">
-        <f>SUMIF(M$2:M$9,"c",P$2:P$9)</f>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" customHeight="1" outlineLevel="2" spans="2:18">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="N10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="Q10" s="23">
+        <f>SUMIF(N$2:N$9,"c",Q$2:Q$9)</f>
         <v>8.2601216e-16</v>
       </c>
-      <c r="Q10" s="23">
-        <f>P10*Parameters!D2</f>
+      <c r="R10" s="24">
+        <f>Q10*Parameters!D2</f>
         <v>2.47803648e-16</v>
       </c>
     </row>
-    <row r="11" customHeight="1" outlineLevel="1" spans="13:17">
-      <c r="M11" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="P11" s="21">
-        <f>SUMIF(M$2:M$9,"e",P$2:P$9)</f>
+    <row r="11" customHeight="1" outlineLevel="1" spans="14:18">
+      <c r="N11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="Q11" s="23">
+        <f>SUMIF(N$2:N$9,"e",Q$2:Q$9)</f>
         <v>1.8015748e-11</v>
       </c>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" customHeight="1" spans="13:17">
-      <c r="M12" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12" s="22"/>
-      <c r="P12" s="21">
-        <f>SUM(P2:P9)</f>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" customHeight="1" spans="14:18">
+      <c r="N12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="Q12" s="23">
+        <f>SUM(Q2:Q9)</f>
         <v>1.801657401216e-11</v>
       </c>
-      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4328,23 +4517,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4352,10 +4541,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4363,10 +4552,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -174,7 +174,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -189,7 +189,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>For testing</t>
@@ -201,7 +201,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -240,13 +240,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -255,7 +255,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -270,7 +270,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
@@ -749,12 +746,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -783,6 +780,36 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -796,11 +823,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,21 +838,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -834,10 +845,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,10 +869,17 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,31 +891,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,16 +913,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,55 +943,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +985,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +1021,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,37 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,37 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1149,42 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1162,7 +1194,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,17 +1214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1204,15 +1225,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,154 +1243,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2254,7 +2251,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2316,11 +2313,9 @@
       <c r="D2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>144</v>
@@ -2332,7 +2327,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>146</v>
@@ -2340,11 +2335,9 @@
       <c r="D3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>144</v>
@@ -2356,7 +2349,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>149</v>
@@ -2364,11 +2357,9 @@
       <c r="D4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>144</v>
@@ -2380,19 +2371,17 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>144</v>
@@ -2405,7 +2394,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>152</v>
@@ -2413,11 +2402,9 @@
       <c r="D6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>144</v>
@@ -2476,10 +2463,10 @@
         <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2499,14 +2486,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
@@ -2558,7 +2545,7 @@
         <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2578,10 +2565,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>38</v>
@@ -2593,7 +2580,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2633,13 +2620,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>98</v>
@@ -2662,13 +2649,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>99</v>
@@ -2680,18 +2667,18 @@
         <v>145</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>183</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>101</v>
@@ -2705,13 +2692,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>102</v>
@@ -2725,13 +2712,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>103</v>
@@ -2755,12 +2742,12 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2782,10 +2769,10 @@
         <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>98</v>
@@ -2808,14 +2795,12 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
@@ -2823,43 +2808,43 @@
         <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="8">
         <v>2000</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="8">
         <v>0.0003</v>
@@ -2870,38 +2855,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="8">
         <v>0.0003</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="8">
         <v>0.0003</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D8" s="8">
         <v>0.001</v>
@@ -2912,44 +2897,35 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="D9" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +2998,7 @@
   <sheetPr/>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3043,10 +3019,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>98</v>
@@ -3055,10 +3031,10 @@
         <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>29</v>
@@ -3073,22 +3049,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>18</v>
@@ -3138,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>98</v>
@@ -3150,7 +3126,7 @@
         <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>18</v>
@@ -3301,46 +3277,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3455,7 +3431,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3501,7 +3477,7 @@
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="27"/>
@@ -3516,7 +3492,7 @@
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3537,7 +3513,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -4126,7 +4102,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -746,12 +746,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -788,10 +788,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,13 +816,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -824,15 +841,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -862,45 +885,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,16 +907,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -943,13 +943,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +985,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1021,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +1057,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,91 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,8 +1149,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1175,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,30 +1220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1229,152 +1235,146 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,7 +1425,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1434,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1443,7 +1443,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2313,7 +2313,6 @@
       <c r="D2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>159</v>
       </c>
@@ -2335,7 +2334,6 @@
       <c r="D3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>161</v>
       </c>
@@ -2357,7 +2355,6 @@
       <c r="D4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>163</v>
       </c>
@@ -2379,7 +2376,6 @@
       <c r="D5" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>166</v>
       </c>
@@ -2402,7 +2398,6 @@
       <c r="D6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>168</v>
       </c>
@@ -2742,7 +2737,7 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2800,7 +2795,6 @@
       <c r="B2" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="5"/>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
@@ -3341,10 +3335,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
     <sheet name="References" sheetId="16" r:id="rId20"/>
+    <sheet name="Authors" sheetId="22" r:id="rId21"/>
+    <sheet name="Changes" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="238">
   <si>
     <t>Id</t>
   </si>
@@ -108,606 +110,600 @@
     <t>wc_lang version</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>Test model for TestExecutableModel</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Rank not used</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>dynamic_flux_balance_analysis</t>
+  </si>
+  <si>
+    <t>For testing</t>
+  </si>
+  <si>
+    <t>submodel_2</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>Na5</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>N5O5</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>H2O[e]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Compartment volume</t>
+  </si>
+  <si>
+    <t>Mass = Concentration * Compartment-volume * Molecular-weight</t>
+  </si>
+  <si>
+    <t>Dry weight</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[e]</t>
+  </si>
+  <si>
+    <t>c Total</t>
+  </si>
+  <si>
+    <t>e Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>Test model for TestExecutableModel</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>Rank not used</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism</t>
-  </si>
-  <si>
-    <t>dynamic_flux_balance_analysis</t>
-  </si>
-  <si>
-    <t>For testing</t>
-  </si>
-  <si>
-    <t>submodel_2</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>Na5</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N5O5</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>H2O[c]</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>H2O[e]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>Compartment volume</t>
-  </si>
-  <si>
-    <t>Mass = Concentration * Compartment-volume * Molecular-weight</t>
-  </si>
-  <si>
-    <t>Dry weight</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[e]</t>
-  </si>
-  <si>
-    <t>c Total</t>
-  </si>
-  <si>
-    <t>e Total</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>volume_e</t>
-  </si>
-  <si>
-    <t>e / density_e</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -739,6 +735,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -746,12 +790,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -793,11 +837,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -809,16 +852,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,28 +891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,13 +908,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,9 +936,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,6 +947,28 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -943,7 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,25 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,13 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,37 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,61 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1089,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,41 +1199,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,6 +1249,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1243,135 +1272,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1382,18 +1426,18 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1425,7 +1469,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1434,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1443,7 +1487,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1845,125 +1889,107 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="18"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="18"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1990,61 +2016,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2069,81 +2095,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.4583333333333" style="5"/>
-    <col min="4" max="4" width="44.775" style="5"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="7.5" style="5"/>
-    <col min="8" max="8" width="7.71666666666667" style="5"/>
-    <col min="9" max="9" width="9.31666666666667" style="5"/>
-    <col min="10" max="10" width="9.425" style="5"/>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4583333333333" style="1"/>
+    <col min="4" max="4" width="44.775" style="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="7.5" style="1"/>
+    <col min="8" max="8" width="7.71666666666667" style="1"/>
+    <col min="9" max="9" width="9.31666666666667" style="1"/>
+    <col min="10" max="10" width="9.425" style="1"/>
     <col min="11" max="1027" width="8.78333333333333" style="14"/>
     <col min="1028" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
@@ -2152,28 +2178,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" s="14">
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -2182,22 +2208,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -2206,22 +2232,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -2256,68 +2282,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="5" customWidth="1"/>
-    <col min="2" max="5" width="8.78333333333333" style="5"/>
-    <col min="6" max="6" width="60.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.78333333333333" style="5"/>
-    <col min="8" max="10" width="9.25" style="5"/>
-    <col min="11" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.78333333333333" style="1"/>
+    <col min="6" max="6" width="60.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.78333333333333" style="1"/>
+    <col min="8" max="10" width="9.25" style="1"/>
+    <col min="11" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2325,20 +2351,20 @@
       <c r="K2"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>144</v>
+      <c r="G3" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2346,20 +2372,20 @@
       <c r="K3"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>144</v>
+      <c r="A4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2367,20 +2393,20 @@
       <c r="K4"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>144</v>
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2389,20 +2415,20 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>144</v>
+      <c r="A6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2442,62 +2468,62 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2522,60 +2548,60 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="5" width="8.78333333333333" style="9"/>
-    <col min="6" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="6" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2603,8 +2629,8 @@
     <col min="1" max="3" width="8.78333333333333" style="9"/>
     <col min="4" max="5" width="9.875" style="9"/>
     <col min="6" max="7" width="8.78333333333333" style="9"/>
-    <col min="8" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="8" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -2615,114 +2641,114 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>169</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>169</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2747,179 +2773,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="5"/>
-    <col min="4" max="4" width="9.25" style="5"/>
-    <col min="5" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>192</v>
+      <c r="C4" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D4" s="8">
         <v>2000</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>193</v>
+      <c r="F4" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D5" s="8">
         <v>0.0003</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>144</v>
+      <c r="F5" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>192</v>
+      <c r="A6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D6" s="8">
         <v>0.0003</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>193</v>
+      <c r="F6" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>192</v>
+      <c r="A7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D7" s="8">
         <v>0.0003</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>193</v>
+      <c r="F7" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>199</v>
+      <c r="A8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D8" s="8">
         <v>0.001</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>118</v>
+      <c r="F8" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>200</v>
+      <c r="A9" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D9" s="8">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>201</v>
+      <c r="F9" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1">
         <v>1100</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>202</v>
+      <c r="F10" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1">
         <v>1000</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>202</v>
+      <c r="F11" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2947,37 +2973,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3002,7 +3028,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
@@ -3013,64 +3039,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="U1" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3094,9 +3120,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="5"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
@@ -3108,31 +3134,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3190,50 +3216,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3258,67 +3284,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.78333333333333" style="2"/>
-    <col min="18" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="17" width="8.78333333333333" style="4"/>
+    <col min="18" max="1025" width="8.78333333333333" style="5"/>
+    <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AMJ1" s="3"/>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AMJ1" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
@@ -3330,12 +3356,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -3343,70 +3508,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
-    <col min="3" max="1015" width="8.78333333333333" style="5"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
     <col min="1016" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
+      <c r="A9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3430,64 +3595,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="7" width="8.78333333333333" style="4"/>
+    <col min="8" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:1025">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1025">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMI1" s="5"/>
+      <c r="AMJ1" s="5"/>
+      <c r="AMK1" s="5"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMI1" s="3"/>
-      <c r="AMJ1" s="3"/>
-      <c r="AMK1" s="3"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="27"/>
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3512,140 +3677,140 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.78333333333333" style="5"/>
-    <col min="1032" max="16384" width="9" style="5"/>
+    <col min="1" max="1031" width="8.78333333333333" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1e-12</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1e-13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="P3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1e-12</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1e-13</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3673,205 +3838,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
-    <col min="3" max="4" width="10.8166666666667" style="5"/>
-    <col min="5" max="5" width="11.4583333333333" style="5"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="15" style="5"/>
-    <col min="8" max="8" width="11.1416666666667" style="5"/>
-    <col min="9" max="10" width="11.4583333333333" style="5"/>
+    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.8166666666667" style="1"/>
+    <col min="5" max="5" width="11.4583333333333" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="15" style="1"/>
+    <col min="8" max="8" width="11.1416666666667" style="1"/>
+    <col min="9" max="10" width="11.4583333333333" style="1"/>
     <col min="11" max="1026" width="8.78333333333333" style="14"/>
     <col min="1027" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="1" customHeight="1" spans="1:1025">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMK1" s="14"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMK1" s="14"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="C3" s="14"/>
+      <c r="D3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="G3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
       <c r="G4" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H4" s="20"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
+      <c r="D5" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H5" s="20"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
+      <c r="D6" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H6" s="20"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E7" s="14">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E8" s="25">
         <v>18.0152</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>95</v>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3899,181 +4064,181 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.7416666666667" style="5"/>
-    <col min="7" max="1026" width="9.10833333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="6" width="15.7416666666667" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>100</v>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4101,17 +4266,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
-    <col min="9" max="10" width="8.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="18" customWidth="1"/>
     <col min="14" max="15" width="12.25" style="15" customWidth="1"/>
     <col min="16" max="16" width="8.375" style="15" customWidth="1"/>
@@ -4122,77 +4287,77 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="21"/>
+      <c r="N1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" customHeight="1" outlineLevel="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="20">
         <v>0.0005</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O2" s="15">
         <f>VLOOKUP(N2,Compartments!A:I,9,FALSE)</f>
@@ -4209,23 +4374,23 @@
       <c r="R2" s="24"/>
     </row>
     <row r="3" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>62</v>
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="20">
         <v>0.0005</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O3" s="15">
         <f>VLOOKUP(N3,Compartments!A:I,9,FALSE)</f>
@@ -4242,23 +4407,23 @@
       <c r="R3" s="24"/>
     </row>
     <row r="4" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>62</v>
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="20">
         <v>0.001</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O4" s="15">
         <f>VLOOKUP(N4,Compartments!A:I,9,FALSE)</f>
@@ -4275,23 +4440,23 @@
       <c r="R4" s="24"/>
     </row>
     <row r="5" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E5" s="20">
         <v>0.002</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O5" s="15">
         <f>VLOOKUP(N5,Compartments!A:I,9,FALSE)</f>
@@ -4308,23 +4473,23 @@
       <c r="R5" s="24"/>
     </row>
     <row r="6" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>100</v>
+      <c r="G6" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O6" s="15">
         <f>VLOOKUP(N6,Compartments!A:I,9,FALSE)</f>
@@ -4341,23 +4506,23 @@
       <c r="R6" s="24"/>
     </row>
     <row r="7" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>62</v>
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="20">
         <v>0.000148</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O7" s="15">
         <f>VLOOKUP(N7,Compartments!A:I,9,FALSE)</f>
@@ -4374,23 +4539,23 @@
       <c r="R7" s="24"/>
     </row>
     <row r="8" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>62</v>
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="20">
         <v>0.0002</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O8" s="15">
         <f>VLOOKUP(N8,Compartments!A:I,9,FALSE)</f>
@@ -4407,23 +4572,23 @@
       <c r="R8" s="24"/>
     </row>
     <row r="9" customHeight="1" outlineLevel="2" spans="1:18">
-      <c r="A9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>100</v>
+      <c r="G9" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O9" s="15">
         <f>VLOOKUP(N9,Compartments!A:I,9,FALSE)</f>
@@ -4443,7 +4608,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="N10" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O10" s="22"/>
       <c r="Q10" s="23">
@@ -4457,7 +4622,7 @@
     </row>
     <row r="11" customHeight="1" outlineLevel="1" spans="14:18">
       <c r="N11" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O11" s="22"/>
       <c r="Q11" s="23">
@@ -4468,7 +4633,7 @@
     </row>
     <row r="12" customHeight="1" spans="14:18">
       <c r="N12" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O12" s="22"/>
       <c r="Q12" s="23">
@@ -4499,8 +4664,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -4511,25 +4676,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_with_mass_computation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="239">
   <si>
     <t>Id</t>
   </si>
@@ -698,6 +698,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -764,6 +767,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -777,9 +783,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -824,29 +827,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +842,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -868,7 +925,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,89 +962,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,25 +990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,13 +1020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,13 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,25 +1122,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,19 +1152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,31 +1164,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,11 +1202,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,201 +1284,145 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3108,14 +3111,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3126,7 +3129,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3159,6 +3162,9 @@
       </c>
       <c r="K1" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3297,46 +3303,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3382,31 +3388,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3424,14 +3430,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3439,7 +3445,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3450,43 +3456,46 @@
         <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>237</v>
+        <v>209</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
